--- a/Энергоресурсосбережение в городском хозяйстве/Вариант.xlsx
+++ b/Энергоресурсосбережение в городском хозяйстве/Вариант.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\2-term-of-SPBSTU\Энергоресурсосбережение в городском хозяйстве\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamet\Documents\GitHub\2-term-of-SPBSTU\Энергоресурсосбережение в городском хозяйстве\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="524">
   <si>
     <t>Место строительства</t>
   </si>
@@ -2103,12 +2103,39 @@
   <si>
     <t> Забаровский Роман Вадимович</t>
   </si>
+  <si>
+    <t>стены</t>
+  </si>
+  <si>
+    <t>окна</t>
+  </si>
+  <si>
+    <t>двери</t>
+  </si>
+  <si>
+    <t>черд</t>
+  </si>
+  <si>
+    <t>подв</t>
+  </si>
+  <si>
+    <t>площ</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ё</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2162,6 +2189,28 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2177,7 +2226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2200,11 +2249,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2247,8 +2377,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2262,6 +2414,811 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$AC$15:$AC$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2070.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1098.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>655.29999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4132-4D61-B9DB-4D1DAC5D5214}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2302,6 +3259,36 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>944216</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>985629</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>83654</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2570,10 +3557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD469"/>
+  <dimension ref="A1:AI469"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="S49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z55" sqref="Z55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,9 +3569,11 @@
     <col min="2" max="2" width="65.28515625" customWidth="1"/>
     <col min="22" max="22" width="31.140625" customWidth="1"/>
     <col min="27" max="27" width="22.7109375" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2634,7 +3623,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2680,7 +3669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2715,8 +3704,11 @@
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AH3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2751,8 +3743,19 @@
       <c r="AB4" s="14"/>
       <c r="AC4" s="14"/>
       <c r="AD4" s="14"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG4" t="s">
+        <v>516</v>
+      </c>
+      <c r="AH4">
+        <f>(113.483+16.65)*2.6*2*7</f>
+        <v>4736.8412000000008</v>
+      </c>
+      <c r="AI4">
+        <f>AH4-AH5-AH6</f>
+        <v>3820.0825700000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2787,8 +3790,15 @@
       <c r="AB5" s="14"/>
       <c r="AC5" s="14"/>
       <c r="AD5" s="14"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG5" t="s">
+        <v>517</v>
+      </c>
+      <c r="AH5">
+        <f>((1.22*0.915)*39*3*7) - (1.22*0.915*3)</f>
+        <v>910.90080000000012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2823,8 +3833,15 @@
       <c r="AB6" s="14"/>
       <c r="AC6" s="14"/>
       <c r="AD6" s="14"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG6" t="s">
+        <v>518</v>
+      </c>
+      <c r="AH6">
+        <f>2.134*0.915*3</f>
+        <v>5.8578299999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2859,8 +3876,18 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
       <c r="AD7" s="14"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AF7" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>519</v>
+      </c>
+      <c r="AH7">
+        <f>(112.808*15.975)</f>
+        <v>1802.1078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2895,8 +3922,18 @@
       <c r="AB8" s="14"/>
       <c r="AC8" s="14"/>
       <c r="AD8" s="14"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AF8" t="s">
+        <v>522</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>520</v>
+      </c>
+      <c r="AH8">
+        <f>(112.808*15.975)</f>
+        <v>1802.1078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2925,7 +3962,7 @@
       <c r="AC9" s="14"/>
       <c r="AD9" s="14"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2944,7 +3981,9 @@
       <c r="N10" s="3">
         <v>1</v>
       </c>
-      <c r="V10" s="14"/>
+      <c r="V10" s="14" t="s">
+        <v>523</v>
+      </c>
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
@@ -2954,7 +3993,7 @@
       <c r="AC10" s="14"/>
       <c r="AD10" s="14"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2992,7 +4031,7 @@
       <c r="AC11" s="14"/>
       <c r="AD11" s="14"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3019,7 +4058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3039,7 +4078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3047,15 +4086,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" ht="21" x14ac:dyDescent="0.25">
+      <c r="AC15" s="19">
+        <v>3786</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" ref="AE15:AE19" si="0">AC15/$AC$20</f>
+        <v>0.49689604031866441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3065,8 +4111,15 @@
       <c r="K16" s="5" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="AC16" s="20">
+        <v>2070.1999999999998</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="0"/>
+        <v>0.27170474978016351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3076,8 +4129,15 @@
       <c r="K17" s="6" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC17" s="20">
+        <v>9</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="0"/>
+        <v>1.181210872389852E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3087,8 +4147,15 @@
       <c r="K18" s="4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC18" s="20">
+        <v>1098.8</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="0"/>
+        <v>0.14421272295355214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3098,8 +4165,15 @@
       <c r="K19" s="7" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC19" s="20">
+        <v>655.29999999999995</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="0"/>
+        <v>8.6005276075229994E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3109,8 +4183,15 @@
       <c r="K20" s="7" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC20" s="18">
+        <v>7619.3</v>
+      </c>
+      <c r="AE20">
+        <f>AC20/$AC$20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3121,7 +4202,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3132,7 +4213,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3141,7 +4222,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3153,7 +4234,7 @@
       </c>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3164,7 +4245,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3175,7 +4256,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3186,7 +4267,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3196,48 +4277,130 @@
       <c r="K28" s="7" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC28" s="21">
+        <v>3820.08</v>
+      </c>
+      <c r="AD28" s="22">
+        <v>4.17</v>
+      </c>
+      <c r="AE28">
+        <f>AC28/AD28</f>
+        <v>916.08633093525179</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" ref="AF28:AF31" si="1">AE28/$AE$33</f>
+        <v>0.28625959800309358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC29" s="23">
+        <v>910.9</v>
+      </c>
+      <c r="AD29" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" ref="AE29:AE32" si="2">AC29/AD29</f>
+        <v>1282.9577464788733</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="1"/>
+        <v>0.4008999549060564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC30" s="23">
+        <v>5.85</v>
+      </c>
+      <c r="AD30" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="1"/>
+        <v>2.8123292478314859E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AC31" s="23">
+        <v>1802.1</v>
+      </c>
+      <c r="AD31" s="24">
+        <v>5.35</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="2"/>
+        <v>336.84112149532712</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="1"/>
+        <v>0.10525645976151859</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="AC32" s="23">
+        <v>1802.1</v>
+      </c>
+      <c r="AD32" s="24">
+        <v>2.75</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="2"/>
+        <v>655.30909090909086</v>
+      </c>
+      <c r="AF32">
+        <f>AE32/$AE$33</f>
+        <v>0.2047716580814998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="AA33">
+        <f>0.55*21.5*(Y36-Y37)+0.03*Y36*3.1*3.1</f>
+        <v>27.65737</v>
+      </c>
+      <c r="AC33">
+        <f>SUM(AC28:AC32)</f>
+        <v>8341.0300000000007</v>
+      </c>
+      <c r="AE33">
+        <f>SUM(AE28:AE32)</f>
+        <v>3200.1942898185434</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3245,15 +4408,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <f>(0.095+0.16-(0.094+0.037)*0.05*0.1)*0.9*1.11</f>
+        <v>0.254090655</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3263,8 +4430,15 @@
       <c r="K36" s="5" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="V36">
+        <f>0.8+(0.9-0.8)/4000*3341</f>
+        <v>0.883525</v>
+      </c>
+      <c r="Y36">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3274,8 +4448,11 @@
       <c r="K37" s="6" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y37">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3286,7 +4463,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3297,7 +4474,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3307,8 +4484,12 @@
       <c r="K40" s="7" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="AA40">
+        <f>0.915*1.22*39</f>
+        <v>43.535700000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3318,8 +4499,12 @@
       <c r="K41" s="7" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Y41">
+        <f>(84.27*168)/(168*1.305)/(0.85*33165)</f>
+        <v>2.2906754159213965E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3329,8 +4514,16 @@
       <c r="K42" s="7" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="V42">
+        <f>(354106+559144-(348375+139238)*0.61*0.15)*0.85*1.11</f>
+        <v>819555.62280675001</v>
+      </c>
+      <c r="AC42">
+        <f>AA40*(9.11)^(2/3)/6+(2.13*0.915*3)*(14.3)^(2/3)/1.4</f>
+        <v>56.254654956070496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3341,7 +4534,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3351,8 +4544,16 @@
       <c r="K44" s="7" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X44">
+        <f>0.65*0.62*(515.7*379.3+395.2*379.3)</f>
+        <v>139238.26110999999</v>
+      </c>
+      <c r="AC44">
+        <f>0.28*(14730*1.205+84.27*0.8)*1.006/8341</f>
+        <v>0.60169178166646697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3362,8 +4563,12 @@
       <c r="K45" s="8" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="AA45">
+        <f>0.02*16*(70.2+190)+0.74*(351-190)*(18/491)*(1-0.4*70/147)</f>
+        <v>86.799723014256614</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3374,7 +4579,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3385,7 +4590,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3396,7 +4601,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3406,8 +4611,12 @@
       <c r="K49" s="7" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="Z49">
+        <f>85*365/(190+0.9*(351-190))</f>
+        <v>92.63959390862945</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3418,8 +4627,16 @@
         <v>482</v>
       </c>
       <c r="L50" s="9"/>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Z50">
+        <f>200*365/(190+0.9*(351-190))</f>
+        <v>217.97551507912812</v>
+      </c>
+      <c r="AB50">
+        <f>91.64*(60*1.2*4.2)/(3.6*24*18)</f>
+        <v>17.818888888888889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3430,7 +4647,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3441,7 +4658,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3452,7 +4669,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3462,8 +4679,12 @@
       <c r="K54" s="7" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Z54">
+        <f>(3541006+559114-(348375+139238)*0.8*0.5)*(1-0.5)*1.11</f>
+        <v>2167316.514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3473,8 +4694,12 @@
       <c r="K55" s="7" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <f>254-336</f>
+        <v>-82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3484,8 +4709,12 @@
       <c r="K56" s="7" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <f>W55/336</f>
+        <v>-0.24404761904761904</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3496,7 +4725,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3507,7 +4736,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3518,7 +4747,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3529,7 +4758,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3540,7 +4769,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3551,7 +4780,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3559,7 +4788,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
